--- a/data/FAQ.xlsx
+++ b/data/FAQ.xlsx
@@ -14654,15 +14654,14 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="7.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="7.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14673,7 +14672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="193.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
